--- a/JU+TE-Computer_Portbelegung_Uebersicht.xlsx
+++ b/JU+TE-Computer_Portbelegung_Uebersicht.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t xml:space="preserve">Port: </t>
   </si>
@@ -199,6 +199,18 @@
     <t xml:space="preserve">ISD</t>
   </si>
   <si>
+    <t xml:space="preserve">ROM-Bank (ES4.0 und 6k)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ZR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROM-Bank ES1988</t>
+  </si>
+  <si>
     <t xml:space="preserve">Legende:</t>
   </si>
   <si>
@@ -215,6 +227,9 @@
   </si>
   <si>
     <t xml:space="preserve">CTRL = Steuerleitungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZR = Zähler-Reset</t>
   </si>
 </sst>
 </file>
@@ -296,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -307,6 +322,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -326,13 +345,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:S26"/>
+  <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="6.38"/>
@@ -344,56 +363,56 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -666,34 +685,58 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="Q19" s="0" t="s">
         <v>60</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
